--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\jytest\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C18A68-72CD-4A51-BD04-4EAA2BD68D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EA08E5-7AA2-40C3-A07D-27BD14F165E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="6230" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -1262,23 +1262,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.9296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.46484375" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.06640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.06640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>202</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>203</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>11</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>19</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>25</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>27</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>28</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>29</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>33</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>34</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>35</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>36</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>38</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>39</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>40</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>41</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>42</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>43</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>44</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>48</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>49</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>50</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>51</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>52</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>53</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>54</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>55</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>56</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>57</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>58</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>59</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>60</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>61</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>62</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>63</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>64</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>65</v>
       </c>
@@ -4330,7 +4330,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>66</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>67</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>68</v>
       </c>
@@ -4466,7 +4466,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>69</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>70</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>71</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>72</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>73</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>74</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>75</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>76</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>77</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>78</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>79</v>
       </c>
@@ -4932,7 +4932,9 @@
       <c r="G84" s="3">
         <v>1</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -4954,7 +4956,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>80</v>
       </c>
@@ -4998,7 +5000,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>81</v>
       </c>
@@ -5042,7 +5044,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>82</v>
       </c>
@@ -5086,7 +5088,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>83</v>
       </c>
@@ -5132,7 +5134,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>1000</v>
       </c>
@@ -5197,7 +5199,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5246,7 +5248,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5295,7 +5297,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5344,7 +5346,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5393,7 +5395,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5442,7 +5444,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5491,7 +5493,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5540,7 +5542,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5589,7 +5591,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5638,7 +5640,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5687,7 +5689,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5736,7 +5738,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5785,7 +5787,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5834,7 +5836,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5883,7 +5885,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5932,7 +5934,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5981,7 +5983,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6030,7 +6032,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6079,7 +6081,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6128,7 +6130,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6177,7 +6179,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6226,7 +6228,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6275,7 +6277,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6324,7 +6326,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6373,7 +6375,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6422,7 +6424,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6471,7 +6473,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6520,7 +6522,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6569,7 +6571,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6618,7 +6620,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6667,7 +6669,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6716,7 +6718,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6765,7 +6767,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6814,7 +6816,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6863,7 +6865,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6912,7 +6914,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6961,7 +6963,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7010,7 +7012,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7059,7 +7061,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7108,7 +7110,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7157,7 +7159,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7206,7 +7208,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7255,7 +7257,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7304,7 +7306,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7353,7 +7355,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7402,7 +7404,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7451,7 +7453,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7500,7 +7502,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7549,7 +7551,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7598,7 +7600,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7647,7 +7649,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7696,7 +7698,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7745,7 +7747,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7794,7 +7796,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7843,7 +7845,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7892,7 +7894,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7941,7 +7943,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7990,7 +7992,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8039,7 +8041,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8088,7 +8090,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8137,7 +8139,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8186,7 +8188,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8235,7 +8237,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8284,7 +8286,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8333,7 +8335,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8382,7 +8384,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8431,7 +8433,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8480,7 +8482,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8529,7 +8531,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8578,7 +8580,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8627,7 +8629,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8676,7 +8678,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8725,7 +8727,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8774,7 +8776,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -8823,7 +8825,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -8872,7 +8874,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8921,7 +8923,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8970,7 +8972,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -9019,7 +9021,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9068,7 +9070,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9117,7 +9119,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9166,7 +9168,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9215,7 +9217,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9264,7 +9266,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9313,7 +9315,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9362,7 +9364,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9411,7 +9413,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -9460,7 +9462,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9509,7 +9511,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9558,7 +9560,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9607,7 +9609,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9656,7 +9658,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9705,7 +9707,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9754,7 +9756,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -9803,7 +9805,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -9852,7 +9854,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -9901,7 +9903,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -9950,7 +9952,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9999,7 +10001,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10048,7 +10050,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10097,7 +10099,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10146,7 +10148,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10195,7 +10197,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10244,7 +10246,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10293,7 +10295,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10342,7 +10344,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10391,7 +10393,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10440,7 +10442,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -10489,7 +10491,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10538,7 +10540,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10587,7 +10589,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10636,7 +10638,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10685,7 +10687,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10734,7 +10736,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -10783,7 +10785,7 @@
       <c r="AT203" s="3"/>
       <c r="AU203" s="3"/>
     </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
